--- a/Calculo Presupuesto.xlsx
+++ b/Calculo Presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Serlaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E72355-CB1F-4672-B2C7-2CD7F22693C8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2DC722-4161-462D-802F-CD80E92B1A37}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{46BA5751-D52A-4435-B032-D4B839C6A314}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="B2:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -461,12 +461,12 @@
     <col min="2" max="2" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="2.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="2.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -475,23 +475,23 @@
         <v>7</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <f>+C2/10</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
         <f>+SUM(E2:E4)</f>
-        <v>0.22500000000000001</v>
+        <v>2.125</v>
       </c>
       <c r="H2" s="1">
         <f>+INT(G2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1">
         <f>+G2-H2</f>
-        <v>0.22500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J2" s="1">
         <f>+IF(ROUND(I2,1)&lt;0.5,0,0.5)</f>
@@ -503,11 +503,11 @@
         <v>8</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3" si="0">+C3/10</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -515,11 +515,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
         <f>+C4/40</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="5" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
@@ -553,7 +553,7 @@
       </c>
       <c r="C10" s="2">
         <f>+IF(SUM(H2,J2)=0,1,SUM(H2,J2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
@@ -562,7 +562,7 @@
       </c>
       <c r="C12" s="2">
         <f>+((C8*C10)+C9)/C10</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
@@ -571,7 +571,7 @@
       </c>
       <c r="C13" s="1">
         <f>+C6*C10*C12</f>
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
@@ -580,7 +580,7 @@
       </c>
       <c r="C15" s="1">
         <f>+C13*4.34</f>
-        <v>56.42</v>
+        <v>190.95999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Calculo Presupuesto.xlsx
+++ b/Calculo Presupuesto.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Serlaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2DC722-4161-462D-802F-CD80E92B1A37}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196E1B73-B5F5-49DE-8744-86473256F977}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{46BA5751-D52A-4435-B032-D4B839C6A314}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{46BA5751-D52A-4435-B032-D4B839C6A314}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Oficinas" sheetId="1" r:id="rId1"/>
+    <sheet name="Comunidades" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>CostoHora</t>
   </si>
@@ -55,6 +56,15 @@
   </si>
   <si>
     <t>Ventanas</t>
+  </si>
+  <si>
+    <t>Numero Viviendas</t>
+  </si>
+  <si>
+    <t>10 viviendas = 1 hora</t>
+  </si>
+  <si>
+    <t>50 ventanas = 1 hora</t>
   </si>
 </sst>
 </file>
@@ -451,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2A3E95-798B-4764-9482-D79D4B8AFB5C}">
   <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -587,4 +597,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43313AE-D0A4-409A-A32C-09D5B5DD7AFE}">
+  <dimension ref="B2:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="2.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="10" width="9.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <f>+IF(SUM(G2,I2)=0,1,SUM(G2,I2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <f>+((C7*C9)+C8)/C9</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <f>+C5*C9*C11</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <f>+C12*4.34</f>
+        <v>69.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Calculo Presupuesto.xlsx
+++ b/Calculo Presupuesto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Serlaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugoquinonez/Projects/Serlaux/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196E1B73-B5F5-49DE-8744-86473256F977}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EB9D80-F885-784D-8E1F-C5F1FF4488C4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{46BA5751-D52A-4435-B032-D4B839C6A314}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{46BA5751-D52A-4435-B032-D4B839C6A314}"/>
   </bookViews>
   <sheets>
     <sheet name="Oficinas" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -461,26 +461,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2A3E95-798B-4764-9482-D79D4B8AFB5C}">
   <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="2.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.1640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -520,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -532,8 +532,8 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -541,7 +541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
@@ -557,7 +557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
@@ -575,7 +575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
@@ -584,7 +584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -601,24 +601,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43313AE-D0A4-409A-A32C-09D5B5DD7AFE}">
-  <dimension ref="B2:E14"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="2.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
-    <col min="6" max="10" width="9.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="2.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1" customWidth="1"/>
+    <col min="6" max="10" width="9.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -629,17 +629,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -647,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -663,7 +665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -672,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -681,7 +683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -690,13 +692,31 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1">
         <f>+C12*4.34</f>
         <v>69.44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="1">
+        <f>C2/10</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="1">
+        <f>C3/50</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="1">
+        <f>B18+B19</f>
+        <v>0.12000000000000001</v>
       </c>
     </row>
   </sheetData>
